--- a/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1FD2218-51ED-4C6B-A10E-3F8AAB41173D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81780DF7-4BAA-4B3F-83CF-224924BE7085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{8AA3DAC5-1034-4788-8668-BDE54D696792}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{090ED657-ED9B-4E7A-A0A3-1D09BC18353D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -70,27 +70,201 @@
     <t>0/4</t>
   </si>
   <si>
+    <t>Nada</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
     <t>Moderadamente</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
     <t>Mucho</t>
   </si>
   <si>
     <t>Muchísimo</t>
   </si>
   <si>
-    <t>Nada</t>
-  </si>
-  <si>
-    <t>Poco</t>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>61,74%</t>
+  </si>
+  <si>
+    <t>44,09%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>51,55%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>60,51%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>10/15</t>
   </si>
   <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
     <t>21,9%</t>
   </si>
   <si>
@@ -172,178 +346,52 @@
     <t>40,32%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
   </si>
   <si>
     <t>19,43%</t>
@@ -427,57 +475,135 @@
     <t>41,83%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
   </si>
   <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>54,52%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
     <t>15,33%</t>
   </si>
   <si>
@@ -556,130 +682,31 @@
     <t>39,09%</t>
   </si>
   <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
   </si>
   <si>
     <t>13,32%</t>
@@ -757,36 +784,150 @@
     <t>40,48%</t>
   </si>
   <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
   </si>
   <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>36,39%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>34,12%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>59,34%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
     <t>13,08%</t>
   </si>
   <si>
@@ -865,145 +1006,37 @@
     <t>42,85%</t>
   </si>
   <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
   </si>
   <si>
     <t>12,63%</t>
@@ -1082,39 +1115,6 @@
   </si>
   <si>
     <t>44,27%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F02DA9DC-E0C4-4BAC-A145-A8785A18D767}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E659FBFF-AE10-4BB7-B3E6-5CB2FE0A04F9}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1896,10 +1896,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>82</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>54285</v>
+        <v>578</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
@@ -1911,34 +1911,34 @@
         <v>19</v>
       </c>
       <c r="H10" s="7">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>42739</v>
+        <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>578</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7">
-        <v>147</v>
-      </c>
-      <c r="N10" s="7">
-        <v>97025</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>23</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,49 +1947,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>149</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>100161</v>
+        <v>618</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="7">
+        <v>3</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1936</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="7">
-        <v>150</v>
-      </c>
-      <c r="I11" s="7">
-        <v>101594</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>4</v>
+      </c>
+      <c r="N11" s="7">
+        <v>2555</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="M11" s="7">
-        <v>299</v>
-      </c>
-      <c r="N11" s="7">
-        <v>201755</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,49 +1998,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="D12" s="7">
-        <v>88036</v>
+        <v>5347</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="7">
+        <v>7</v>
+      </c>
+      <c r="I12" s="7">
+        <v>4717</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="K12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
-        <v>134</v>
-      </c>
-      <c r="I12" s="7">
-        <v>90917</v>
-      </c>
-      <c r="J12" s="7" t="s">
+      <c r="M12" s="7">
+        <v>15</v>
+      </c>
+      <c r="N12" s="7">
+        <v>10064</v>
+      </c>
+      <c r="O12" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="P12" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="M12" s="7">
-        <v>267</v>
-      </c>
-      <c r="N12" s="7">
-        <v>178954</v>
-      </c>
-      <c r="O12" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,49 +2049,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>23339</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="7">
+        <v>36</v>
+      </c>
+      <c r="I13" s="7">
+        <v>23935</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2177</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>72</v>
+      </c>
+      <c r="N13" s="7">
+        <v>47274</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>2177</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,49 +2100,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>5408</v>
+        <v>29187</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H14" s="7">
+        <v>26</v>
+      </c>
+      <c r="I14" s="7">
+        <v>17574</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>709</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>70</v>
+      </c>
+      <c r="N14" s="7">
+        <v>46760</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M14" s="7">
-        <v>9</v>
-      </c>
-      <c r="N14" s="7">
-        <v>6117</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,102 +2151,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>372</v>
+        <v>90</v>
       </c>
       <c r="D15" s="7">
-        <v>247891</v>
+        <v>59069</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>353</v>
+        <v>72</v>
       </c>
       <c r="I15" s="7">
-        <v>238137</v>
+        <v>48162</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>725</v>
+        <v>162</v>
       </c>
       <c r="N15" s="7">
-        <v>486028</v>
+        <v>107231</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>5347</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2177</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="7">
-        <v>7</v>
-      </c>
-      <c r="I16" s="7">
-        <v>4717</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>3</v>
+      </c>
+      <c r="N16" s="7">
+        <v>2177</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="M16" s="7">
-        <v>15</v>
-      </c>
-      <c r="N16" s="7">
-        <v>10064</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,49 +2255,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>23339</v>
+        <v>5408</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H17" s="7">
+        <v>1</v>
+      </c>
+      <c r="I17" s="7">
+        <v>709</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>9</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6117</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="7">
-        <v>36</v>
-      </c>
-      <c r="I17" s="7">
-        <v>23935</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="M17" s="7">
-        <v>72</v>
-      </c>
-      <c r="N17" s="7">
-        <v>47274</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,49 +2306,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="D18" s="7">
-        <v>29187</v>
+        <v>54285</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H18" s="7">
+        <v>65</v>
+      </c>
+      <c r="I18" s="7">
+        <v>42739</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="M18" s="7">
+        <v>147</v>
+      </c>
+      <c r="N18" s="7">
+        <v>97025</v>
+      </c>
+      <c r="O18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="P18" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="7">
-        <v>26</v>
-      </c>
-      <c r="I18" s="7">
-        <v>17574</v>
-      </c>
-      <c r="J18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="7">
-        <v>70</v>
-      </c>
-      <c r="N18" s="7">
-        <v>46760</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +2357,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="D19" s="7">
-        <v>578</v>
+        <v>100161</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="7">
+        <v>150</v>
+      </c>
+      <c r="I19" s="7">
+        <v>101594</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>299</v>
+      </c>
+      <c r="N19" s="7">
+        <v>201755</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="7">
-        <v>1</v>
-      </c>
-      <c r="N19" s="7">
-        <v>578</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,25 +2408,25 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D20" s="7">
-        <v>618</v>
+        <v>88036</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>95</v>
       </c>
       <c r="H20" s="7">
-        <v>3</v>
+        <v>134</v>
       </c>
       <c r="I20" s="7">
-        <v>1936</v>
+        <v>90917</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>96</v>
@@ -2438,10 +2438,10 @@
         <v>98</v>
       </c>
       <c r="M20" s="7">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="N20" s="7">
-        <v>2555</v>
+        <v>178954</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>99</v>
@@ -2459,49 +2459,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>90</v>
+        <v>372</v>
       </c>
       <c r="D21" s="7">
-        <v>59069</v>
+        <v>247891</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>72</v>
+        <v>353</v>
       </c>
       <c r="I21" s="7">
-        <v>48162</v>
+        <v>238137</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>162</v>
+        <v>725</v>
       </c>
       <c r="N21" s="7">
-        <v>107231</v>
+        <v>486028</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2512,49 +2512,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>59632</v>
+        <v>578</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>3</v>
+      </c>
+      <c r="I22" s="7">
+        <v>2177</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H22" s="7">
-        <v>72</v>
-      </c>
-      <c r="I22" s="7">
-        <v>47457</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>4</v>
+      </c>
+      <c r="N22" s="7">
+        <v>2755</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="M22" s="7">
-        <v>162</v>
-      </c>
-      <c r="N22" s="7">
-        <v>107089</v>
-      </c>
-      <c r="O22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,49 +2563,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>185</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>123500</v>
+        <v>6026</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="H23" s="7">
+        <v>4</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2646</v>
+      </c>
+      <c r="J23" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="H23" s="7">
-        <v>186</v>
-      </c>
-      <c r="I23" s="7">
-        <v>125529</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>13</v>
+      </c>
+      <c r="N23" s="7">
+        <v>8672</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="M23" s="7">
-        <v>371</v>
-      </c>
-      <c r="N23" s="7">
-        <v>249029</v>
-      </c>
-      <c r="O23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,49 +2614,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>177</v>
+        <v>90</v>
       </c>
       <c r="D24" s="7">
-        <v>117222</v>
+        <v>59632</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="H24" s="7">
+        <v>72</v>
+      </c>
+      <c r="I24" s="7">
+        <v>47457</v>
+      </c>
+      <c r="J24" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="H24" s="7">
-        <v>160</v>
-      </c>
-      <c r="I24" s="7">
-        <v>108491</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>162</v>
+      </c>
+      <c r="N24" s="7">
+        <v>107089</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="M24" s="7">
-        <v>337</v>
-      </c>
-      <c r="N24" s="7">
-        <v>225714</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,40 +2665,40 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D25" s="7">
-        <v>578</v>
+        <v>123500</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="H25" s="7">
+        <v>186</v>
+      </c>
+      <c r="I25" s="7">
+        <v>125529</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2177</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>132</v>
       </c>
       <c r="M25" s="7">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="N25" s="7">
-        <v>2755</v>
+        <v>249029</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>133</v>
@@ -2716,10 +2716,10 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>177</v>
       </c>
       <c r="D26" s="7">
-        <v>6026</v>
+        <v>117222</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>136</v>
@@ -2731,10 +2731,10 @@
         <v>138</v>
       </c>
       <c r="H26" s="7">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="I26" s="7">
-        <v>2646</v>
+        <v>108491</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>139</v>
@@ -2746,10 +2746,10 @@
         <v>141</v>
       </c>
       <c r="M26" s="7">
-        <v>13</v>
+        <v>337</v>
       </c>
       <c r="N26" s="7">
-        <v>8672</v>
+        <v>225714</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>142</v>
@@ -2773,13 +2773,13 @@
         <v>306959</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>425</v>
@@ -2788,13 +2788,13 @@
         <v>286300</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>887</v>
@@ -2803,13 +2803,13 @@
         <v>593259</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2828,7 +2828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A4229B-0D57-4843-86BA-85CFBD487BDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C06BA7-FB63-465C-9D27-D174F56CE65B}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3218,49 +3218,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="D10" s="7">
-        <v>38421</v>
+        <v>0</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="7">
-        <v>53</v>
-      </c>
-      <c r="I10" s="7">
-        <v>37211</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="M10" s="7">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="N10" s="7">
-        <v>75631</v>
+        <v>0</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>152</v>
+        <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>153</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,49 +3269,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>168</v>
+        <v>2</v>
       </c>
       <c r="D11" s="7">
-        <v>114091</v>
+        <v>1506</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>155</v>
+        <v>29</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>156</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="H11" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>113834</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>159</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
-        <v>330</v>
+        <v>2</v>
       </c>
       <c r="N11" s="7">
-        <v>227924</v>
+        <v>1505</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>162</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,49 +3320,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="D12" s="7">
-        <v>93581</v>
+        <v>3419</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="H12" s="7">
-        <v>112</v>
+        <v>11</v>
       </c>
       <c r="I12" s="7">
-        <v>77788</v>
+        <v>7860</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="M12" s="7">
-        <v>249</v>
+        <v>16</v>
       </c>
       <c r="N12" s="7">
-        <v>171369</v>
+        <v>11280</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,49 +3371,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>0</v>
+        <v>30286</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="I13" s="7">
-        <v>595</v>
+        <v>28597</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>44</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="N13" s="7">
-        <v>595</v>
+        <v>58883</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>134</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>44</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,49 +3422,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>4610</v>
+        <v>28116</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="7">
+        <v>39</v>
+      </c>
+      <c r="I14" s="7">
+        <v>28011</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="M14" s="7">
+        <v>78</v>
+      </c>
+      <c r="N14" s="7">
+        <v>56127</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H14" s="7">
-        <v>1</v>
-      </c>
-      <c r="I14" s="7">
-        <v>768</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" s="7">
-        <v>8</v>
-      </c>
-      <c r="N14" s="7">
-        <v>5378</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,102 +3473,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>369</v>
+        <v>88</v>
       </c>
       <c r="D15" s="7">
-        <v>250702</v>
+        <v>63327</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>329</v>
+        <v>91</v>
       </c>
       <c r="I15" s="7">
-        <v>230195</v>
+        <v>64468</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>698</v>
+        <v>179</v>
       </c>
       <c r="N15" s="7">
-        <v>480897</v>
+        <v>127795</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D16" s="7">
-        <v>3419</v>
+        <v>0</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>183</v>
+        <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>184</v>
+        <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="H16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>7860</v>
+        <v>595</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>11280</v>
+        <v>595</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>189</v>
+        <v>107</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>190</v>
+        <v>18</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,49 +3577,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="D17" s="7">
-        <v>30286</v>
+        <v>4610</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="H17" s="7">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="I17" s="7">
-        <v>28597</v>
+        <v>768</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>196</v>
+        <v>18</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="M17" s="7">
-        <v>83</v>
+        <v>8</v>
       </c>
       <c r="N17" s="7">
-        <v>58883</v>
+        <v>5378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>200</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,49 +3628,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D18" s="7">
-        <v>28116</v>
+        <v>38421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="H18" s="7">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="I18" s="7">
-        <v>28011</v>
+        <v>37211</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="M18" s="7">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="N18" s="7">
-        <v>56127</v>
+        <v>75631</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,49 +3679,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="D19" s="7">
-        <v>0</v>
+        <v>114091</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>197</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>45</v>
+        <v>198</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
-        <v>0</v>
+        <v>162</v>
       </c>
       <c r="I19" s="7">
-        <v>0</v>
+        <v>113834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>44</v>
+        <v>200</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>45</v>
+        <v>201</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="M19" s="7">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="N19" s="7">
-        <v>0</v>
+        <v>227924</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>44</v>
+        <v>203</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>45</v>
+        <v>204</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>54</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,46 +3730,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>137</v>
       </c>
       <c r="D20" s="7">
-        <v>1506</v>
+        <v>93581</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>207</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>211</v>
+        <v>144</v>
       </c>
       <c r="H20" s="7">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="I20" s="7">
-        <v>0</v>
+        <v>77788</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>44</v>
+        <v>208</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>210</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>249</v>
       </c>
       <c r="N20" s="7">
-        <v>1505</v>
+        <v>171369</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>213</v>
@@ -3781,49 +3781,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>88</v>
+        <v>369</v>
       </c>
       <c r="D21" s="7">
-        <v>63327</v>
+        <v>250702</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="I21" s="7">
-        <v>64468</v>
+        <v>230195</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>179</v>
+        <v>698</v>
       </c>
       <c r="N21" s="7">
-        <v>127795</v>
+        <v>480897</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3834,49 +3834,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>62</v>
+        <v>0</v>
       </c>
       <c r="D22" s="7">
-        <v>41840</v>
+        <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7">
+        <v>595</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="H22" s="7">
-        <v>64</v>
-      </c>
-      <c r="I22" s="7">
-        <v>45071</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>1</v>
+      </c>
+      <c r="N22" s="7">
+        <v>595</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="K22" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="M22" s="7">
-        <v>126</v>
-      </c>
-      <c r="N22" s="7">
-        <v>86911</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +3885,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>210</v>
+        <v>9</v>
       </c>
       <c r="D23" s="7">
-        <v>144376</v>
+        <v>6115</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7">
+        <v>768</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" s="7">
+        <v>6883</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H23" s="7">
-        <v>203</v>
-      </c>
-      <c r="I23" s="7">
-        <v>142431</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M23" s="7">
-        <v>413</v>
-      </c>
-      <c r="N23" s="7">
-        <v>286807</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +3936,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>176</v>
+        <v>62</v>
       </c>
       <c r="D24" s="7">
-        <v>121697</v>
+        <v>41840</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="H24" s="7">
+        <v>64</v>
+      </c>
+      <c r="I24" s="7">
+        <v>45071</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="M24" s="7">
+        <v>126</v>
+      </c>
+      <c r="N24" s="7">
+        <v>86911</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H24" s="7">
-        <v>151</v>
-      </c>
-      <c r="I24" s="7">
-        <v>105799</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="M24" s="7">
-        <v>327</v>
-      </c>
-      <c r="N24" s="7">
-        <v>227495</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +3987,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="D25" s="7">
-        <v>0</v>
+        <v>144376</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>231</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="I25" s="7">
-        <v>595</v>
+        <v>142431</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>44</v>
+        <v>234</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="M25" s="7">
-        <v>1</v>
+        <v>413</v>
       </c>
       <c r="N25" s="7">
-        <v>595</v>
+        <v>286807</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,46 +4038,46 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>9</v>
+        <v>176</v>
       </c>
       <c r="D26" s="7">
-        <v>6115</v>
+        <v>121697</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H26" s="7">
+        <v>151</v>
+      </c>
+      <c r="I26" s="7">
+        <v>105799</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>327</v>
+      </c>
+      <c r="N26" s="7">
+        <v>227495</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H26" s="7">
-        <v>1</v>
-      </c>
-      <c r="I26" s="7">
-        <v>768</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="M26" s="7">
-        <v>10</v>
-      </c>
-      <c r="N26" s="7">
-        <v>6883</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="Q26" s="7" t="s">
         <v>247</v>
@@ -4095,13 +4095,13 @@
         <v>314028</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>420</v>
@@ -4110,13 +4110,13 @@
         <v>294663</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>877</v>
@@ -4125,13 +4125,13 @@
         <v>608691</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -4150,7 +4150,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{777855D5-5101-4E51-A747-2F1FE93C00F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88842DD-99E2-415F-93AB-A5C8D932BCE1}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4540,49 +4540,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>35195</v>
+        <v>678</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>646</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="H10" s="7">
-        <v>56</v>
-      </c>
-      <c r="I10" s="7">
-        <v>39478</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1324</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="M10" s="7">
-        <v>104</v>
-      </c>
-      <c r="N10" s="7">
-        <v>74673</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,49 +4591,49 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="D11" s="7">
-        <v>124537</v>
+        <v>708</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>258</v>
+        <v>17</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>18</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="H11" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I11" s="7">
-        <v>105027</v>
+        <v>0</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>18</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>20</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="M11" s="7">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="N11" s="7">
-        <v>229564</v>
+        <v>708</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>265</v>
+        <v>18</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,49 +4642,49 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>140</v>
+        <v>11</v>
       </c>
       <c r="D12" s="7">
-        <v>104005</v>
+        <v>7955</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="H12" s="7">
-        <v>140</v>
+        <v>15</v>
       </c>
       <c r="I12" s="7">
-        <v>100373</v>
+        <v>9279</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="M12" s="7">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="N12" s="7">
-        <v>204379</v>
+        <v>17234</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,49 +4693,49 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="D13" s="7">
-        <v>1107</v>
+        <v>26383</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>44</v>
+        <v>268</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="H13" s="7">
-        <v>4</v>
+        <v>57</v>
       </c>
       <c r="I13" s="7">
-        <v>2853</v>
+        <v>38001</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="N13" s="7">
-        <v>3961</v>
+        <v>64384</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>131</v>
+        <v>273</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>140</v>
+        <v>274</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,49 +4744,49 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D14" s="7">
-        <v>4326</v>
+        <v>36768</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H14" s="7">
+        <v>56</v>
+      </c>
+      <c r="I14" s="7">
+        <v>37842</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="M14" s="7">
+        <v>110</v>
+      </c>
+      <c r="N14" s="7">
+        <v>74609</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="H14" s="7">
-        <v>5</v>
-      </c>
-      <c r="I14" s="7">
-        <v>3103</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M14" s="7">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7">
-        <v>7429</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,102 +4795,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>364</v>
+        <v>105</v>
       </c>
       <c r="D15" s="7">
-        <v>269171</v>
+        <v>72493</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H15" s="7">
-        <v>350</v>
+        <v>129</v>
       </c>
       <c r="I15" s="7">
-        <v>250835</v>
+        <v>85767</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M15" s="7">
-        <v>714</v>
+        <v>234</v>
       </c>
       <c r="N15" s="7">
-        <v>520006</v>
+        <v>158260</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>7955</v>
+        <v>1107</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H16" s="7">
+        <v>4</v>
+      </c>
+      <c r="I16" s="7">
+        <v>2853</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>5</v>
+      </c>
+      <c r="N16" s="7">
+        <v>3961</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="H16" s="7">
-        <v>15</v>
-      </c>
-      <c r="I16" s="7">
-        <v>9279</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="M16" s="7">
-        <v>26</v>
-      </c>
-      <c r="N16" s="7">
-        <v>17234</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,49 +4899,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>26383</v>
+        <v>4326</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>177</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="H17" s="7">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>38001</v>
+        <v>3103</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>106</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="M17" s="7">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="N17" s="7">
-        <v>64384</v>
+        <v>7429</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>182</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>227</v>
+        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,49 +4950,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D18" s="7">
-        <v>36768</v>
+        <v>35195</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="H18" s="7">
         <v>56</v>
       </c>
       <c r="I18" s="7">
-        <v>37842</v>
+        <v>39478</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N18" s="7">
-        <v>74609</v>
+        <v>74673</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,49 +5001,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>169</v>
       </c>
       <c r="D19" s="7">
-        <v>678</v>
+        <v>124537</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="H19" s="7">
+        <v>145</v>
+      </c>
+      <c r="I19" s="7">
+        <v>105027</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="M19" s="7">
+        <v>314</v>
+      </c>
+      <c r="N19" s="7">
+        <v>229564</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>646</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1324</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,46 +5052,46 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="D20" s="7">
-        <v>708</v>
+        <v>104005</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>44</v>
+        <v>315</v>
       </c>
       <c r="G20" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H20" s="7">
+        <v>140</v>
+      </c>
+      <c r="I20" s="7">
+        <v>100373</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="M20" s="7">
+        <v>280</v>
+      </c>
+      <c r="N20" s="7">
+        <v>204379</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H20" s="7">
-        <v>0</v>
-      </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1</v>
-      </c>
-      <c r="N20" s="7">
-        <v>708</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>321</v>
@@ -5103,49 +5103,49 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>105</v>
+        <v>364</v>
       </c>
       <c r="D21" s="7">
-        <v>72493</v>
+        <v>269171</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H21" s="7">
-        <v>129</v>
+        <v>350</v>
       </c>
       <c r="I21" s="7">
-        <v>85767</v>
+        <v>250835</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M21" s="7">
-        <v>234</v>
+        <v>714</v>
       </c>
       <c r="N21" s="7">
-        <v>158260</v>
+        <v>520006</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5156,49 +5156,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="D22" s="7">
-        <v>43150</v>
+        <v>1785</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>5</v>
+      </c>
+      <c r="I22" s="7">
+        <v>3499</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="H22" s="7">
-        <v>71</v>
-      </c>
-      <c r="I22" s="7">
-        <v>48758</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>7</v>
+      </c>
+      <c r="N22" s="7">
+        <v>5284</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="M22" s="7">
-        <v>130</v>
-      </c>
-      <c r="N22" s="7">
-        <v>91908</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,49 +5207,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>207</v>
+        <v>7</v>
       </c>
       <c r="D23" s="7">
-        <v>150921</v>
+        <v>5034</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="H23" s="7">
+        <v>5</v>
+      </c>
+      <c r="I23" s="7">
+        <v>3103</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M23" s="7">
+        <v>12</v>
+      </c>
+      <c r="N23" s="7">
+        <v>8137</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H23" s="7">
-        <v>202</v>
-      </c>
-      <c r="I23" s="7">
-        <v>143028</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="M23" s="7">
-        <v>409</v>
-      </c>
-      <c r="N23" s="7">
-        <v>293949</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,49 +5258,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>194</v>
+        <v>59</v>
       </c>
       <c r="D24" s="7">
-        <v>140773</v>
+        <v>43150</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H24" s="7">
+        <v>71</v>
+      </c>
+      <c r="I24" s="7">
+        <v>48758</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="M24" s="7">
+        <v>130</v>
+      </c>
+      <c r="N24" s="7">
+        <v>91908</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="H24" s="7">
-        <v>196</v>
-      </c>
-      <c r="I24" s="7">
-        <v>138215</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="M24" s="7">
-        <v>390</v>
-      </c>
-      <c r="N24" s="7">
-        <v>278989</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,49 +5309,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="D25" s="7">
-        <v>1785</v>
+        <v>150921</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>172</v>
+        <v>342</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="G25" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="H25" s="7">
+        <v>202</v>
+      </c>
+      <c r="I25" s="7">
+        <v>143028</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="M25" s="7">
+        <v>409</v>
+      </c>
+      <c r="N25" s="7">
+        <v>293949</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3499</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="M25" s="7">
-        <v>7</v>
-      </c>
-      <c r="N25" s="7">
-        <v>5284</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,43 +5360,43 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="D26" s="7">
-        <v>5034</v>
+        <v>140773</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>174</v>
+        <v>351</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>100</v>
+        <v>352</v>
       </c>
       <c r="G26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H26" s="7">
+        <v>196</v>
+      </c>
+      <c r="I26" s="7">
+        <v>138215</v>
+      </c>
+      <c r="J26" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="H26" s="7">
-        <v>5</v>
-      </c>
-      <c r="I26" s="7">
-        <v>3103</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>355</v>
       </c>
       <c r="L26" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="M26" s="7">
+        <v>390</v>
+      </c>
+      <c r="N26" s="7">
+        <v>278989</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="M26" s="7">
-        <v>12</v>
-      </c>
-      <c r="N26" s="7">
-        <v>8137</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>357</v>
@@ -5417,13 +5417,13 @@
         <v>341664</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H27" s="7">
         <v>479</v>
@@ -5432,13 +5432,13 @@
         <v>336602</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M27" s="7">
         <v>948</v>
@@ -5447,13 +5447,13 @@
         <v>678267</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81780DF7-4BAA-4B3F-83CF-224924BE7085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C005F715-B139-4B79-90F7-523640DB5894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{090ED657-ED9B-4E7A-A0A3-1D09BC18353D}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8D15F80-328A-435D-B279-7DA7C99AF641}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="363">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 42,16%)</t>
   </si>
@@ -67,1054 +67,1066 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Muchísimo</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>Moderadamente</t>
+  </si>
+  <si>
+    <t>Poco</t>
   </si>
   <si>
     <t>Nada</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>Poco</t>
-  </si>
-  <si>
-    <t>Moderadamente</t>
-  </si>
-  <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>Muchísimo</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>0,98%</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>48,74%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>57,47%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
   </si>
   <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>4,41%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
   </si>
   <si>
     <t>0%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>42,45%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>49,54%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>41,3%</t>
+  </si>
+  <si>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,25%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
   </si>
   <si>
     <t>12,07%</t>
   </si>
   <si>
-    <t>2,38%</t>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>44,0%</t>
+  </si>
+  <si>
+    <t>50,11%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,73%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>38,99%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>37,05%</t>
+  </si>
+  <si>
+    <t>49,23%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>42,61%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>49,14%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>46,73%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>61,74%</t>
-  </si>
-  <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>51,55%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
   </si>
   <si>
     <t>1,2%</t>
   </si>
   <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>45,16%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>40,65%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>20,29%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>33,87%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>54,42%</t>
-  </si>
-  <si>
-    <t>43,92%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
+    <t>0,65%</t>
   </si>
   <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>45,51%</t>
-  </si>
-  <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>54,58%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>32,07%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>50,41%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>43,18%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>36,39%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>53,08%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>34,12%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>51,49%</t>
-  </si>
-  <si>
-    <t>41,87%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>40,52%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>33,49%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>42,85%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>1,04%</t>
   </si>
   <si>
     <t>0,37%</t>
   </si>
   <si>
-    <t>2,33%</t>
-  </si>
-  <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,24%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,84%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1137,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1221,39 +1233,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1305,7 +1317,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1416,13 +1428,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1431,6 +1436,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1495,19 +1507,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E659FBFF-AE10-4BB7-B3E6-5CB2FE0A04F9}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A63AB97-F7C6-4FA3-8C0C-2322362AEF0E}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1896,49 +1928,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>1</v>
-      </c>
-      <c r="N10" s="7">
-        <v>578</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1947,49 +1973,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>618</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>3</v>
-      </c>
-      <c r="I11" s="7">
-        <v>1936</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>4</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2555</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,49 +2018,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7">
-        <v>5347</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>7</v>
-      </c>
-      <c r="I12" s="7">
-        <v>4717</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>15</v>
-      </c>
-      <c r="N12" s="7">
-        <v>10064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2049,49 +2063,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
-      </c>
-      <c r="D13" s="7">
-        <v>23339</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>36</v>
-      </c>
-      <c r="I13" s="7">
-        <v>23935</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>72</v>
-      </c>
-      <c r="N13" s="7">
-        <v>47274</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2100,49 +2108,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>44</v>
-      </c>
-      <c r="D14" s="7">
-        <v>29187</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>52</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
-      </c>
-      <c r="I14" s="7">
-        <v>17574</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>70</v>
-      </c>
-      <c r="N14" s="7">
-        <v>46760</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,102 +2153,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>90</v>
-      </c>
-      <c r="D15" s="7">
-        <v>59069</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>72</v>
-      </c>
-      <c r="I15" s="7">
-        <v>48162</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>162</v>
-      </c>
-      <c r="N15" s="7">
-        <v>107231</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>50840</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="H16" s="7">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="I16" s="7">
-        <v>2177</v>
+        <v>43438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>141</v>
       </c>
       <c r="N16" s="7">
-        <v>2177</v>
+        <v>94278</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,49 +2251,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="D17" s="7">
-        <v>5408</v>
+        <v>57003</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="I17" s="7">
-        <v>709</v>
+        <v>54579</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>63</v>
+        <v>30</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="M17" s="7">
-        <v>9</v>
+        <v>168</v>
       </c>
       <c r="N17" s="7">
-        <v>6117</v>
+        <v>111583</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2306,49 +2302,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D18" s="7">
-        <v>54285</v>
+        <v>12421</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="I18" s="7">
-        <v>42739</v>
+        <v>9767</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>39</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>40</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="M18" s="7">
-        <v>147</v>
+        <v>34</v>
       </c>
       <c r="N18" s="7">
-        <v>97025</v>
+        <v>22188</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>81</v>
+        <v>42</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2357,49 +2353,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>149</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>100161</v>
+        <v>1941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>84</v>
+        <v>45</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="H19" s="7">
-        <v>150</v>
+        <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>101594</v>
+        <v>1936</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="M19" s="7">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="N19" s="7">
-        <v>201755</v>
+        <v>3877</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>92</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2408,49 +2404,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>88036</v>
+        <v>578</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
-        <v>134</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>90917</v>
+        <v>733</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
-        <v>267</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>178954</v>
+        <v>1311</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2459,102 +2455,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>372</v>
+        <v>185</v>
       </c>
       <c r="D21" s="7">
-        <v>247891</v>
+        <v>122783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>353</v>
+        <v>166</v>
       </c>
       <c r="I21" s="7">
-        <v>238137</v>
+        <v>110454</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>725</v>
+        <v>351</v>
       </c>
       <c r="N21" s="7">
-        <v>486028</v>
+        <v>233238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D22" s="7">
-        <v>578</v>
+        <v>66383</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="H22" s="7">
-        <v>3</v>
+        <v>95</v>
       </c>
       <c r="I22" s="7">
-        <v>2177</v>
+        <v>65053</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="N22" s="7">
-        <v>2755</v>
+        <v>131436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>106</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>107</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>108</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2563,49 +2559,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7">
-        <v>6026</v>
+        <v>66497</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>110</v>
+        <v>73</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="H23" s="7">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="I23" s="7">
-        <v>2646</v>
+        <v>70949</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="N23" s="7">
-        <v>8672</v>
+        <v>137446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>117</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2614,49 +2610,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D24" s="7">
-        <v>59632</v>
+        <v>47211</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>118</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H24" s="7">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="I24" s="7">
-        <v>47457</v>
+        <v>37690</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
-        <v>162</v>
+        <v>128</v>
       </c>
       <c r="N24" s="7">
-        <v>107089</v>
+        <v>84901</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>124</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,49 +2661,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>185</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>123500</v>
+        <v>4085</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>92</v>
       </c>
       <c r="H25" s="7">
-        <v>186</v>
+        <v>1</v>
       </c>
       <c r="I25" s="7">
-        <v>125529</v>
+        <v>709</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>55</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>249029</v>
+        <v>4795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>135</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,49 +2712,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>117222</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>98</v>
       </c>
       <c r="H26" s="7">
-        <v>160</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>108491</v>
+        <v>1444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="M26" s="7">
-        <v>337</v>
+        <v>2</v>
       </c>
       <c r="N26" s="7">
-        <v>225714</v>
+        <v>1444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>144</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2767,55 +2763,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>277</v>
+      </c>
+      <c r="D27" s="7">
+        <v>184176</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>259</v>
+      </c>
+      <c r="I27" s="7">
+        <v>175845</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>536</v>
+      </c>
+      <c r="N27" s="7">
+        <v>360021</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>177</v>
+      </c>
+      <c r="D28" s="7">
+        <v>117222</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="7">
+        <v>160</v>
+      </c>
+      <c r="I28" s="7">
+        <v>108491</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="M28" s="7">
+        <v>337</v>
+      </c>
+      <c r="N28" s="7">
+        <v>225714</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>185</v>
+      </c>
+      <c r="D29" s="7">
+        <v>123500</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H29" s="7">
+        <v>186</v>
+      </c>
+      <c r="I29" s="7">
+        <v>125529</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="M29" s="7">
+        <v>371</v>
+      </c>
+      <c r="N29" s="7">
+        <v>249029</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>90</v>
+      </c>
+      <c r="D30" s="7">
+        <v>59632</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H30" s="7">
+        <v>72</v>
+      </c>
+      <c r="I30" s="7">
+        <v>47457</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="M30" s="7">
+        <v>162</v>
+      </c>
+      <c r="N30" s="7">
+        <v>107089</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6026</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H31" s="7">
+        <v>4</v>
+      </c>
+      <c r="I31" s="7">
+        <v>2646</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="M31" s="7">
+        <v>13</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8672</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>578</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="7">
+        <v>3</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2177</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4</v>
+      </c>
+      <c r="N32" s="7">
+        <v>2755</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>462</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>306959</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>425</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>286300</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>887</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>593259</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2828,8 +3138,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C06BA7-FB63-465C-9D27-D174F56CE65B}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F7076-02B2-4179-969D-834C570B2D50}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3220,47 +3530,41 @@
       <c r="C10" s="7">
         <v>0</v>
       </c>
-      <c r="D10" s="7">
-        <v>0</v>
-      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
-        <v>0</v>
-      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,49 +3573,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>2</v>
-      </c>
-      <c r="D11" s="7">
-        <v>1506</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>148</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>2</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1505</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>150</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3320,49 +3618,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>5</v>
-      </c>
-      <c r="D12" s="7">
-        <v>3419</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>152</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>11</v>
-      </c>
-      <c r="I12" s="7">
-        <v>7860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>154</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>155</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>156</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>16</v>
-      </c>
-      <c r="N12" s="7">
-        <v>11280</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>158</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3371,49 +3663,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
-      </c>
-      <c r="D13" s="7">
-        <v>30286</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>161</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>162</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>41</v>
-      </c>
-      <c r="I13" s="7">
-        <v>28597</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>164</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>165</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>83</v>
-      </c>
-      <c r="N13" s="7">
-        <v>58883</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>167</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>168</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,49 +3708,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7">
-        <v>28116</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>169</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>171</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28011</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>172</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>173</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>174</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>78</v>
-      </c>
-      <c r="N14" s="7">
-        <v>56127</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>175</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,102 +3753,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>88</v>
-      </c>
-      <c r="D15" s="7">
-        <v>63327</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>91</v>
-      </c>
-      <c r="I15" s="7">
-        <v>64468</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>179</v>
-      </c>
-      <c r="N15" s="7">
-        <v>127795</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>64869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>20</v>
+        <v>147</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="H16" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I16" s="7">
-        <v>595</v>
+        <v>58442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>179</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="N16" s="7">
-        <v>595</v>
+        <v>123311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>107</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,49 +3851,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="D17" s="7">
-        <v>4610</v>
+        <v>71210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="H17" s="7">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I17" s="7">
-        <v>768</v>
+        <v>68693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>18</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>185</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
-        <v>8</v>
+        <v>201</v>
       </c>
       <c r="N17" s="7">
-        <v>5378</v>
+        <v>139903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>68</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,49 +3902,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7">
-        <v>38421</v>
+        <v>11495</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="H18" s="7">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="I18" s="7">
-        <v>37211</v>
+        <v>14895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="M18" s="7">
-        <v>110</v>
+        <v>38</v>
       </c>
       <c r="N18" s="7">
-        <v>75631</v>
+        <v>26390</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3679,49 +3953,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>114091</v>
+        <v>2227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="H19" s="7">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>113834</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="M19" s="7">
-        <v>330</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>227924</v>
+        <v>2227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>91</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3730,49 +4004,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>137</v>
+        <v>0</v>
       </c>
       <c r="D20" s="7">
-        <v>93581</v>
+        <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>207</v>
+        <v>97</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>144</v>
+        <v>179</v>
       </c>
       <c r="H20" s="7">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>77788</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
       <c r="M20" s="7">
-        <v>249</v>
+        <v>0</v>
       </c>
       <c r="N20" s="7">
-        <v>171369</v>
+        <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,102 +4055,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>369</v>
+        <v>215</v>
       </c>
       <c r="D21" s="7">
-        <v>250702</v>
+        <v>149802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>329</v>
+        <v>203</v>
       </c>
       <c r="I21" s="7">
-        <v>230195</v>
+        <v>142030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>698</v>
+        <v>418</v>
       </c>
       <c r="N21" s="7">
-        <v>480897</v>
+        <v>291832</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>56828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>214</v>
+        <v>182</v>
       </c>
       <c r="H22" s="7">
-        <v>1</v>
+        <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>595</v>
+        <v>47356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>215</v>
+        <v>183</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>18</v>
+        <v>184</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="M22" s="7">
-        <v>1</v>
+        <v>151</v>
       </c>
       <c r="N22" s="7">
-        <v>595</v>
+        <v>104184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>18</v>
+        <v>187</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3885,49 +4159,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>9</v>
+        <v>108</v>
       </c>
       <c r="D23" s="7">
-        <v>6115</v>
+        <v>73166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>62</v>
+        <v>190</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="H23" s="7">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="I23" s="7">
-        <v>768</v>
+        <v>73737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>178</v>
+        <v>192</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>18</v>
+        <v>193</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="M23" s="7">
-        <v>10</v>
+        <v>212</v>
       </c>
       <c r="N23" s="7">
-        <v>6883</v>
+        <v>146903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3936,49 +4210,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D24" s="7">
-        <v>41840</v>
+        <v>30344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="H24" s="7">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="I24" s="7">
-        <v>45071</v>
+        <v>30176</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>28</v>
+        <v>202</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="M24" s="7">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="N24" s="7">
-        <v>86911</v>
+        <v>60521</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +4261,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>6</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3888</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7">
+        <v>768</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="7">
-        <v>144376</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="7">
-        <v>203</v>
-      </c>
-      <c r="I25" s="7">
-        <v>142431</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>235</v>
-      </c>
       <c r="M25" s="7">
-        <v>413</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>286807</v>
+        <v>4656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>212</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +4312,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D26" s="7">
-        <v>121697</v>
+        <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>239</v>
+        <v>55</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>240</v>
+        <v>97</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>241</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
-        <v>151</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>105799</v>
+        <v>595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>214</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="M26" s="7">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="N26" s="7">
-        <v>227495</v>
+        <v>595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>137</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,55 +4363,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>242</v>
+      </c>
+      <c r="D27" s="7">
+        <v>164226</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>217</v>
+      </c>
+      <c r="I27" s="7">
+        <v>152633</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>459</v>
+      </c>
+      <c r="N27" s="7">
+        <v>316859</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>176</v>
+      </c>
+      <c r="D28" s="7">
+        <v>121697</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" s="7">
+        <v>151</v>
+      </c>
+      <c r="I28" s="7">
+        <v>105799</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M28" s="7">
+        <v>327</v>
+      </c>
+      <c r="N28" s="7">
+        <v>227495</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>210</v>
+      </c>
+      <c r="D29" s="7">
+        <v>144376</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H29" s="7">
+        <v>203</v>
+      </c>
+      <c r="I29" s="7">
+        <v>142431</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M29" s="7">
+        <v>413</v>
+      </c>
+      <c r="N29" s="7">
+        <v>286807</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>62</v>
+      </c>
+      <c r="D30" s="7">
+        <v>41840</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H30" s="7">
+        <v>64</v>
+      </c>
+      <c r="I30" s="7">
+        <v>45071</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="M30" s="7">
+        <v>126</v>
+      </c>
+      <c r="N30" s="7">
+        <v>86911</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>9</v>
+      </c>
+      <c r="D31" s="7">
+        <v>6115</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="H31" s="7">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7">
+        <v>768</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="M31" s="7">
+        <v>10</v>
+      </c>
+      <c r="N31" s="7">
+        <v>6883</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
+        <v>0</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7">
+        <v>595</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="M32" s="7">
+        <v>1</v>
+      </c>
+      <c r="N32" s="7">
+        <v>595</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>457</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>314028</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>420</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>294663</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>877</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>608691</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4150,8 +4738,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B88842DD-99E2-415F-93AB-A5C8D932BCE1}">
-  <dimension ref="A1:Q27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8ADE43-CE3B-4455-A5F0-C7F39B17DA95}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4167,7 +4755,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4540,49 +5128,43 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>1</v>
-      </c>
-      <c r="D10" s="7">
-        <v>678</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>249</v>
+        <v>11</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>250</v>
+        <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>1</v>
-      </c>
-      <c r="I10" s="7">
-        <v>646</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" s="7"/>
       <c r="J10" s="7" t="s">
-        <v>251</v>
+        <v>11</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>252</v>
+        <v>11</v>
       </c>
       <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1324</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N10" s="7"/>
       <c r="O10" s="7" t="s">
-        <v>253</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>254</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4591,49 +5173,43 @@
         <v>12</v>
       </c>
       <c r="C11" s="7">
-        <v>1</v>
-      </c>
-      <c r="D11" s="7">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>11</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
+      <c r="I11" s="7"/>
       <c r="J11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>256</v>
+        <v>11</v>
       </c>
       <c r="M11" s="7">
-        <v>1</v>
-      </c>
-      <c r="N11" s="7">
-        <v>708</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N11" s="7"/>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>257</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4642,49 +5218,43 @@
         <v>13</v>
       </c>
       <c r="C12" s="7">
-        <v>11</v>
-      </c>
-      <c r="D12" s="7">
-        <v>7955</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>258</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>259</v>
+        <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>260</v>
+        <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>15</v>
-      </c>
-      <c r="I12" s="7">
-        <v>9279</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" s="7"/>
       <c r="J12" s="7" t="s">
-        <v>261</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>262</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>263</v>
+        <v>11</v>
       </c>
       <c r="M12" s="7">
-        <v>26</v>
-      </c>
-      <c r="N12" s="7">
-        <v>17234</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N12" s="7"/>
       <c r="O12" s="7" t="s">
-        <v>264</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>265</v>
+        <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>266</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,49 +5263,43 @@
         <v>14</v>
       </c>
       <c r="C13" s="7">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7">
-        <v>26383</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>267</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>269</v>
+        <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>57</v>
-      </c>
-      <c r="I13" s="7">
-        <v>38001</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
-        <v>270</v>
+        <v>11</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>271</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>272</v>
+        <v>11</v>
       </c>
       <c r="M13" s="7">
-        <v>95</v>
-      </c>
-      <c r="N13" s="7">
-        <v>64384</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N13" s="7"/>
       <c r="O13" s="7" t="s">
-        <v>273</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>274</v>
+        <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>236</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4744,49 +5308,43 @@
         <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>54</v>
-      </c>
-      <c r="D14" s="7">
-        <v>36768</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>56</v>
-      </c>
-      <c r="I14" s="7">
-        <v>37842</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" s="7"/>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>11</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>11</v>
       </c>
       <c r="M14" s="7">
-        <v>110</v>
-      </c>
-      <c r="N14" s="7">
-        <v>74609</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>11</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4795,102 +5353,96 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>105</v>
-      </c>
-      <c r="D15" s="7">
-        <v>72493</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>129</v>
-      </c>
-      <c r="I15" s="7">
-        <v>85767</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" s="7"/>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="M15" s="7">
-        <v>234</v>
-      </c>
-      <c r="N15" s="7">
-        <v>158260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="D16" s="7">
-        <v>1107</v>
+        <v>79516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>18</v>
+        <v>257</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="H16" s="7">
-        <v>4</v>
+        <v>114</v>
       </c>
       <c r="I16" s="7">
-        <v>2853</v>
+        <v>79860</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="M16" s="7">
-        <v>5</v>
+        <v>227</v>
       </c>
       <c r="N16" s="7">
-        <v>3961</v>
+        <v>159376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>262</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>113</v>
+        <v>263</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,49 +5451,49 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="D17" s="7">
-        <v>4326</v>
+        <v>78022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>177</v>
+        <v>266</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="H17" s="7">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="I17" s="7">
-        <v>3103</v>
+        <v>76502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>292</v>
+        <v>268</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>106</v>
+        <v>269</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
       <c r="M17" s="7">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="N17" s="7">
-        <v>7429</v>
+        <v>154524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>182</v>
+        <v>272</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>295</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4950,49 +5502,49 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="D18" s="7">
-        <v>35195</v>
+        <v>14356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>297</v>
+        <v>40</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="H18" s="7">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="I18" s="7">
-        <v>39478</v>
+        <v>21974</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="M18" s="7">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="N18" s="7">
-        <v>74673</v>
+        <v>36330</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,49 +5553,49 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
-        <v>169</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>124537</v>
+        <v>708</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>55</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>283</v>
       </c>
       <c r="H19" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>105027</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>308</v>
+        <v>55</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>309</v>
+        <v>97</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>310</v>
+        <v>284</v>
       </c>
       <c r="M19" s="7">
-        <v>314</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>229564</v>
+        <v>708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,49 +5604,49 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>104005</v>
+        <v>678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="H20" s="7">
-        <v>140</v>
+        <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>100373</v>
+        <v>646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>316</v>
+        <v>287</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>317</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>288</v>
       </c>
       <c r="M20" s="7">
-        <v>280</v>
+        <v>2</v>
       </c>
       <c r="N20" s="7">
-        <v>204379</v>
+        <v>1324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>289</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,102 +5655,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>364</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7">
-        <v>269171</v>
+        <v>173280</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H21" s="7">
-        <v>350</v>
+        <v>256</v>
       </c>
       <c r="I21" s="7">
-        <v>250835</v>
+        <v>178982</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
-        <v>714</v>
+        <v>498</v>
       </c>
       <c r="N21" s="7">
-        <v>520006</v>
+        <v>352262</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>2</v>
+        <v>81</v>
       </c>
       <c r="D22" s="7">
-        <v>1785</v>
+        <v>61258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>291</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="H22" s="7">
-        <v>5</v>
+        <v>82</v>
       </c>
       <c r="I22" s="7">
-        <v>3499</v>
+        <v>58355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>324</v>
+        <v>294</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="M22" s="7">
-        <v>7</v>
+        <v>163</v>
       </c>
       <c r="N22" s="7">
-        <v>5284</v>
+        <v>119613</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>327</v>
+        <v>298</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5207,49 +5759,49 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>7</v>
+        <v>100</v>
       </c>
       <c r="D23" s="7">
-        <v>5034</v>
+        <v>72899</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>179</v>
+        <v>299</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="H23" s="7">
-        <v>5</v>
+        <v>93</v>
       </c>
       <c r="I23" s="7">
-        <v>3103</v>
+        <v>66526</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="M23" s="7">
-        <v>12</v>
+        <v>193</v>
       </c>
       <c r="N23" s="7">
-        <v>8137</v>
+        <v>139425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>332</v>
+        <v>306</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,49 +5810,49 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>43150</v>
+        <v>28794</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="H24" s="7">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="I24" s="7">
-        <v>48758</v>
+        <v>26783</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="M24" s="7">
-        <v>130</v>
+        <v>78</v>
       </c>
       <c r="N24" s="7">
-        <v>91908</v>
+        <v>55578</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5309,49 +5861,49 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>207</v>
+        <v>6</v>
       </c>
       <c r="D25" s="7">
-        <v>150921</v>
+        <v>4326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="H25" s="7">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>143028</v>
+        <v>3103</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>345</v>
+        <v>215</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>347</v>
+        <v>165</v>
       </c>
       <c r="M25" s="7">
-        <v>409</v>
+        <v>11</v>
       </c>
       <c r="N25" s="7">
-        <v>293949</v>
+        <v>7429</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>349</v>
+        <v>247</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>350</v>
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,49 +5912,49 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>194</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>140773</v>
+        <v>1107</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>351</v>
+        <v>57</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>352</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>353</v>
+        <v>58</v>
       </c>
       <c r="H26" s="7">
-        <v>196</v>
+        <v>4</v>
       </c>
       <c r="I26" s="7">
-        <v>138215</v>
+        <v>2853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>355</v>
+        <v>93</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="M26" s="7">
-        <v>390</v>
+        <v>5</v>
       </c>
       <c r="N26" s="7">
-        <v>278989</v>
+        <v>3961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>357</v>
+        <v>93</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,55 +5963,369 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>227</v>
+      </c>
+      <c r="D27" s="7">
+        <v>168384</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
+        <v>223</v>
+      </c>
+      <c r="I27" s="7">
+        <v>157621</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M27" s="7">
+        <v>450</v>
+      </c>
+      <c r="N27" s="7">
+        <v>326005</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="7">
+        <v>194</v>
+      </c>
+      <c r="D28" s="7">
+        <v>140773</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H28" s="7">
+        <v>196</v>
+      </c>
+      <c r="I28" s="7">
+        <v>138215</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="M28" s="7">
+        <v>390</v>
+      </c>
+      <c r="N28" s="7">
+        <v>278989</v>
+      </c>
+      <c r="O28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q28" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="7">
+        <v>207</v>
+      </c>
+      <c r="D29" s="7">
+        <v>150921</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H29" s="7">
+        <v>202</v>
+      </c>
+      <c r="I29" s="7">
+        <v>143028</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="M29" s="7">
+        <v>409</v>
+      </c>
+      <c r="N29" s="7">
+        <v>293949</v>
+      </c>
+      <c r="O29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="7">
+        <v>59</v>
+      </c>
+      <c r="D30" s="7">
+        <v>43150</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="H30" s="7">
+        <v>71</v>
+      </c>
+      <c r="I30" s="7">
+        <v>48758</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="M30" s="7">
+        <v>130</v>
+      </c>
+      <c r="N30" s="7">
+        <v>91908</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="7">
+        <v>7</v>
+      </c>
+      <c r="D31" s="7">
+        <v>5034</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="H31" s="7">
+        <v>5</v>
+      </c>
+      <c r="I31" s="7">
+        <v>3103</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" s="7">
+        <v>12</v>
+      </c>
+      <c r="N31" s="7">
+        <v>8137</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1785</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H32" s="7">
+        <v>5</v>
+      </c>
+      <c r="I32" s="7">
+        <v>3499</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5284</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="7">
         <v>469</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D33" s="7">
         <v>341664</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H27" s="7">
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>479</v>
       </c>
-      <c r="I27" s="7">
+      <c r="I33" s="7">
         <v>336602</v>
       </c>
-      <c r="J27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="M27" s="7">
+      <c r="J33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M33" s="7">
         <v>948</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N33" s="7">
         <v>678267</v>
       </c>
-      <c r="O27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>59</v>
+      <c r="O33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C005F715-B139-4B79-90F7-523640DB5894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC094B73-71FC-44DA-9028-ED20CA353323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8D15F80-328A-435D-B279-7DA7C99AF641}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A56D175-8D39-4C1F-B492-D75B12D9D692}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="975" uniqueCount="357">
   <si>
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 42,16%)</t>
   </si>
@@ -97,19 +97,19 @@
     <t>41,41%</t>
   </si>
   <si>
-    <t>34,51%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
   </si>
   <si>
     <t>39,33%</t>
   </si>
   <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
+    <t>32,24%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
   </si>
   <si>
     <t>40,42%</t>
@@ -118,1015 +118,997 @@
     <t>35,06%</t>
   </si>
   <si>
-    <t>45,32%</t>
+    <t>45,46%</t>
   </si>
   <si>
     <t>46,43%</t>
   </si>
   <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>53,44%</t>
   </si>
   <si>
     <t>49,41%</t>
   </si>
   <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>42,62%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,97%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,96%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
+  </si>
+  <si>
+    <t>47,46%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>53,95%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>43,35%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>37,42%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>37,3%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>54,62%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
     <t>42,21%</t>
   </si>
   <si>
-    <t>57,47%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
+    <t>50,71%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>52,71%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>39,73%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>38,34%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,71%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>45,72%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>45,67%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>44,22%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>47,23%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,38%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
   </si>
   <si>
     <t>0,58%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
   </si>
   <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>39,18%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>40,59%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>36,91%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>44,0%</t>
-  </si>
-  <si>
-    <t>50,11%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>19,35%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2015 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>38,73%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>37,05%</t>
-  </si>
-  <si>
-    <t>49,23%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,56%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>42,61%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>49,14%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
+    <t>1,77%</t>
+  </si>
+  <si>
     <t>1,04%</t>
   </si>
   <si>
-    <t>0,37%</t>
-  </si>
-  <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>1,56%</t>
   </si>
 </sst>
 </file>
@@ -1538,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A63AB97-F7C6-4FA3-8C0C-2322362AEF0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B739B96-5AD9-4411-A70A-A1418827FF39}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2392,10 +2374,10 @@
         <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2410,13 +2392,13 @@
         <v>578</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -2425,13 +2407,13 @@
         <v>733</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2440,13 +2422,13 @@
         <v>1311</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2461,13 +2443,13 @@
         <v>122783</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>166</v>
@@ -2476,13 +2458,13 @@
         <v>110454</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>351</v>
@@ -2491,18 +2473,18 @@
         <v>233238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2514,13 +2496,13 @@
         <v>66383</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="H22" s="7">
         <v>95</v>
@@ -2529,13 +2511,13 @@
         <v>65053</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -2544,13 +2526,13 @@
         <v>131436</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,13 +2547,13 @@
         <v>66497</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -2580,13 +2562,13 @@
         <v>70949</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>203</v>
@@ -2595,13 +2577,13 @@
         <v>137446</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2616,13 +2598,13 @@
         <v>47211</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H24" s="7">
         <v>57</v>
@@ -2631,13 +2613,13 @@
         <v>37690</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
@@ -2646,13 +2628,13 @@
         <v>84901</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2667,13 +2649,13 @@
         <v>4085</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -2682,13 +2664,13 @@
         <v>709</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>59</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2697,13 +2679,13 @@
         <v>4795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>49</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2718,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2733,13 +2715,13 @@
         <v>1444</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2748,13 +2730,13 @@
         <v>1444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2769,13 +2751,13 @@
         <v>184176</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>259</v>
@@ -2784,13 +2766,13 @@
         <v>175845</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -2799,13 +2781,13 @@
         <v>360021</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2822,13 +2804,13 @@
         <v>117222</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="H28" s="7">
         <v>160</v>
@@ -2837,13 +2819,13 @@
         <v>108491</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M28" s="7">
         <v>337</v>
@@ -2852,13 +2834,13 @@
         <v>225714</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2873,13 +2855,13 @@
         <v>123500</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H29" s="7">
         <v>186</v>
@@ -2888,13 +2870,13 @@
         <v>125529</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -2903,13 +2885,13 @@
         <v>249029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2924,13 +2906,13 @@
         <v>59632</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>122</v>
+        <v>86</v>
       </c>
       <c r="H30" s="7">
         <v>72</v>
@@ -2939,13 +2921,13 @@
         <v>47457</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M30" s="7">
         <v>162</v>
@@ -2954,13 +2936,13 @@
         <v>107089</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,13 +2957,13 @@
         <v>6026</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -2990,13 +2972,13 @@
         <v>2646</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -3005,13 +2987,13 @@
         <v>8672</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3008,13 @@
         <v>578</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -3041,13 +3023,13 @@
         <v>2177</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3056,13 +3038,13 @@
         <v>2755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3077,13 +3059,13 @@
         <v>306959</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>425</v>
@@ -3092,13 +3074,13 @@
         <v>286300</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>887</v>
@@ -3107,18 +3089,18 @@
         <v>593259</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3138,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{895F7076-02B2-4179-969D-834C570B2D50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F5398-9E5C-4E54-86F0-E9D541676462}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3155,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3806,13 +3788,13 @@
         <v>64869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>147</v>
+        <v>65</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>83</v>
@@ -3821,13 +3803,13 @@
         <v>58442</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -3836,13 +3818,13 @@
         <v>123311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3839,13 @@
         <v>71210</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H17" s="7">
         <v>99</v>
@@ -3872,13 +3854,13 @@
         <v>68693</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -3887,13 +3869,13 @@
         <v>139903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3890,13 @@
         <v>11495</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="H18" s="7">
         <v>21</v>
@@ -3923,13 +3905,13 @@
         <v>14895</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3938,13 +3920,13 @@
         <v>26390</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3941,13 @@
         <v>2227</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3974,13 +3956,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3989,13 +3971,13 @@
         <v>2227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4025,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4040,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4043,13 @@
         <v>149802</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>203</v>
@@ -4076,13 +4058,13 @@
         <v>142030</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>418</v>
@@ -4091,18 +4073,18 @@
         <v>291832</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4114,13 +4096,13 @@
         <v>56828</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -4129,13 +4111,13 @@
         <v>47356</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -4144,13 +4126,13 @@
         <v>104184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4147,13 @@
         <v>73166</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H23" s="7">
         <v>104</v>
@@ -4180,13 +4162,13 @@
         <v>73737</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="M23" s="7">
         <v>212</v>
@@ -4195,13 +4177,13 @@
         <v>146903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4198,13 @@
         <v>30344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H24" s="7">
         <v>43</v>
@@ -4231,13 +4213,13 @@
         <v>30176</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -4246,13 +4228,13 @@
         <v>60521</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4249,13 @@
         <v>3888</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="H25" s="7">
         <v>1</v>
@@ -4285,10 +4267,10 @@
         <v>46</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4297,13 +4279,13 @@
         <v>4656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4300,13 @@
         <v>0</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -4333,13 +4315,13 @@
         <v>595</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4348,13 +4330,13 @@
         <v>595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>216</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4351,13 @@
         <v>164226</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>217</v>
@@ -4384,13 +4366,13 @@
         <v>152633</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>459</v>
@@ -4399,13 +4381,13 @@
         <v>316859</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4404,13 @@
         <v>121697</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="H28" s="7">
         <v>151</v>
@@ -4437,13 +4419,13 @@
         <v>105799</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>147</v>
+        <v>213</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="M28" s="7">
         <v>327</v>
@@ -4452,13 +4434,13 @@
         <v>227495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4455,13 @@
         <v>144376</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>203</v>
@@ -4488,13 +4470,13 @@
         <v>142431</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>413</v>
@@ -4503,13 +4485,13 @@
         <v>286807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4506,13 @@
         <v>41840</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="H30" s="7">
         <v>64</v>
@@ -4539,13 +4521,13 @@
         <v>45071</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="M30" s="7">
         <v>126</v>
@@ -4554,13 +4536,13 @@
         <v>86911</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4557,13 @@
         <v>6115</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="H31" s="7">
         <v>1</v>
@@ -4590,13 +4572,13 @@
         <v>768</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4605,13 +4587,13 @@
         <v>6883</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>248</v>
+        <v>49</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4608,13 @@
         <v>0</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -4641,13 +4623,13 @@
         <v>595</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4656,13 +4638,13 @@
         <v>595</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4659,13 @@
         <v>314028</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>420</v>
@@ -4692,13 +4674,13 @@
         <v>294663</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>877</v>
@@ -4707,18 +4689,18 @@
         <v>608691</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8ADE43-CE3B-4455-A5F0-C7F39B17DA95}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACC6DD-83ED-4DB9-A4B6-590834CDA4FE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4755,7 +4737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5406,13 +5388,13 @@
         <v>79516</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -5421,13 +5403,13 @@
         <v>79860</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>227</v>
@@ -5436,13 +5418,13 @@
         <v>159376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5457,13 +5439,13 @@
         <v>78022</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="H17" s="7">
         <v>109</v>
@@ -5472,13 +5454,13 @@
         <v>76502</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -5487,13 +5469,13 @@
         <v>154524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5490,13 @@
         <v>14356</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H18" s="7">
         <v>32</v>
@@ -5523,13 +5505,13 @@
         <v>21974</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -5538,13 +5520,13 @@
         <v>36330</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5541,13 @@
         <v>708</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5574,13 +5556,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5589,13 +5571,13 @@
         <v>708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>285</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5592,13 @@
         <v>678</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5625,13 +5607,13 @@
         <v>646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5640,13 +5622,13 @@
         <v>1324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>246</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5643,13 @@
         <v>173280</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>256</v>
@@ -5676,13 +5658,13 @@
         <v>178982</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>498</v>
@@ -5691,18 +5673,18 @@
         <v>352262</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5714,13 +5696,13 @@
         <v>61258</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>82</v>
@@ -5729,13 +5711,13 @@
         <v>58355</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>295</v>
+        <v>110</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -5744,13 +5726,13 @@
         <v>119613</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5747,13 @@
         <v>72899</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="H23" s="7">
         <v>93</v>
@@ -5780,13 +5762,13 @@
         <v>66526</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="M23" s="7">
         <v>193</v>
@@ -5795,13 +5777,13 @@
         <v>139425</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>306</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5798,13 @@
         <v>28794</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>44</v>
+        <v>297</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
@@ -5831,13 +5813,13 @@
         <v>26783</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -5846,13 +5828,13 @@
         <v>55578</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5849,13 @@
         <v>4326</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -5882,13 +5864,13 @@
         <v>3103</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>165</v>
+        <v>310</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5897,13 +5879,13 @@
         <v>7429</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>319</v>
+        <v>209</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5918,13 +5900,13 @@
         <v>1107</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>58</v>
+        <v>313</v>
       </c>
       <c r="H26" s="7">
         <v>4</v>
@@ -5933,13 +5915,13 @@
         <v>2853</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>93</v>
+        <v>315</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="M26" s="7">
         <v>5</v>
@@ -5948,13 +5930,13 @@
         <v>3961</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>93</v>
+        <v>318</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +5951,13 @@
         <v>168384</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>223</v>
@@ -5984,13 +5966,13 @@
         <v>157621</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>450</v>
@@ -5999,13 +5981,13 @@
         <v>326005</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6004,13 @@
         <v>140773</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="H28" s="7">
         <v>196</v>
@@ -6037,13 +6019,13 @@
         <v>138215</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
@@ -6052,13 +6034,13 @@
         <v>278989</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6055,13 @@
         <v>150921</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="H29" s="7">
         <v>202</v>
@@ -6088,13 +6070,13 @@
         <v>143028</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="M29" s="7">
         <v>409</v>
@@ -6103,13 +6085,13 @@
         <v>293949</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6106,13 @@
         <v>43150</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H30" s="7">
         <v>71</v>
@@ -6139,13 +6121,13 @@
         <v>48758</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="M30" s="7">
         <v>130</v>
@@ -6154,13 +6136,13 @@
         <v>91908</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6157,13 @@
         <v>5034</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
       <c r="H31" s="7">
         <v>5</v>
@@ -6190,13 +6172,13 @@
         <v>3103</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>249</v>
+        <v>172</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -6205,13 +6187,13 @@
         <v>8137</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>60</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6208,13 @@
         <v>1785</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>288</v>
+        <v>353</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -6241,13 +6223,13 @@
         <v>3499</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>100</v>
+        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6256,13 +6238,13 @@
         <v>5284</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6259,13 @@
         <v>341664</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>479</v>
@@ -6292,13 +6274,13 @@
         <v>336602</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>948</v>
@@ -6307,18 +6289,18 @@
         <v>678267</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP07C10-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC094B73-71FC-44DA-9028-ED20CA353323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B99E4704-B79B-41E5-8330-BB43650C25C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A56D175-8D39-4C1F-B492-D75B12D9D692}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{38B1177C-C89F-4F7C-9EB8-0C8E63555FFE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según frecuencia de sentirse comprendido por sus padres en 2007 (Tasa respuesta: 42,16%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -94,1021 +94,1021 @@
     <t>8-11</t>
   </si>
   <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
     <t>41,41%</t>
   </si>
   <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
-  </si>
-  <si>
-    <t>32,24%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>48,63%</t>
   </si>
   <si>
     <t>40,42%</t>
   </si>
   <si>
-    <t>35,06%</t>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>46,15%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>43,5%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>41,81%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>40,66%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>43,85%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>45,15%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>20,29%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>42,25%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>48,37%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>53,06%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>34,6%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
+  </si>
+  <si>
+    <t>48,31%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>55,23%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,48%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>43,18%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>47,12%</t>
+  </si>
+  <si>
+    <t>43,83%</t>
+  </si>
+  <si>
+    <t>50,41%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 44,59%)</t>
+  </si>
+  <si>
+    <t>44,62%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>41,0%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>36,69%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>45,03%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>48,11%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>43,19%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>46,99%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>45,46%</t>
   </si>
   <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>42,62%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>32,83%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>38,96%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>36,84%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>42,49%</t>
+  </si>
+  <si>
+    <t>37,73%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
   </si>
   <si>
     <t>2,33%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2012 (Tasa respuesta: 41,78%)</t>
-  </si>
-  <si>
-    <t>43,3%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>41,15%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>47,46%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
-  </si>
-  <si>
-    <t>47,04%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>53,95%</t>
-  </si>
-  <si>
-    <t>48,37%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>55,48%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>43,35%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>37,42%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>37,3%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>48,31%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>54,62%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>50,71%</t>
-  </si>
-  <si>
-    <t>18,48%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>34,68%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>45,98%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>52,71%</t>
-  </si>
-  <si>
-    <t>47,12%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse comprendido por sus padres en 2016 (Tasa respuesta: 44,59%)</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>39,73%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>44,62%</t>
-  </si>
-  <si>
-    <t>38,45%</t>
-  </si>
-  <si>
-    <t>50,86%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>45,03%</t>
-  </si>
-  <si>
-    <t>38,34%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>39,71%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>42,81%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>36,69%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>45,72%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>41,13%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>44,22%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
-  </si>
-  <si>
-    <t>42,49%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>47,23%</t>
-  </si>
-  <si>
-    <t>43,34%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
     <t>0,52%</t>
   </si>
   <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>1,56%</t>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B739B96-5AD9-4411-A70A-A1418827FF39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D699E0DB-CB0F-4051-ABAF-F337169510BA}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2182,10 +2182,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D16" s="7">
-        <v>50840</v>
+        <v>43438</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
@@ -2197,10 +2197,10 @@
         <v>20</v>
       </c>
       <c r="H16" s="7">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="I16" s="7">
-        <v>43438</v>
+        <v>50840</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>21</v>
@@ -2233,10 +2233,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>57003</v>
+        <v>54579</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>27</v>
@@ -2248,10 +2248,10 @@
         <v>29</v>
       </c>
       <c r="H17" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="I17" s="7">
-        <v>54579</v>
+        <v>57003</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>30</v>
@@ -2284,10 +2284,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D18" s="7">
-        <v>12421</v>
+        <v>9767</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>36</v>
@@ -2299,10 +2299,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="7">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I18" s="7">
-        <v>9767</v>
+        <v>12421</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>39</v>
@@ -2338,7 +2338,7 @@
         <v>3</v>
       </c>
       <c r="D19" s="7">
-        <v>1941</v>
+        <v>1936</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>45</v>
@@ -2353,7 +2353,7 @@
         <v>3</v>
       </c>
       <c r="I19" s="7">
-        <v>1936</v>
+        <v>1941</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>48</v>
@@ -2374,10 +2374,10 @@
         <v>51</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2389,31 +2389,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>578</v>
+        <v>733</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>733</v>
+        <v>578</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -2422,13 +2422,13 @@
         <v>1311</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,34 +2437,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>166</v>
+      </c>
+      <c r="D21" s="7">
+        <v>110454</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>185</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>122783</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>166</v>
-      </c>
-      <c r="I21" s="7">
-        <v>110454</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>351</v>
@@ -2473,51 +2473,51 @@
         <v>233238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>95</v>
+      </c>
+      <c r="D22" s="7">
+        <v>65053</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H22" s="7">
         <v>101</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>66383</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="7">
-        <v>95</v>
-      </c>
-      <c r="I22" s="7">
-        <v>65053</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M22" s="7">
         <v>196</v>
@@ -2526,13 +2526,13 @@
         <v>131436</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2541,34 +2541,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7">
+        <v>70949</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="7">
         <v>99</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>66497</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="7">
-        <v>104</v>
-      </c>
-      <c r="I23" s="7">
-        <v>70949</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M23" s="7">
         <v>203</v>
@@ -2577,13 +2577,13 @@
         <v>137446</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,34 +2592,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>57</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37690</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H24" s="7">
         <v>71</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>47211</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H24" s="7">
-        <v>57</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37690</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M24" s="7">
         <v>128</v>
@@ -2628,13 +2628,13 @@
         <v>84901</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,34 +2643,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>4085</v>
+        <v>709</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>91</v>
       </c>
       <c r="H25" s="7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>709</v>
+        <v>4085</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>92</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -2679,13 +2679,13 @@
         <v>4795</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,34 +2694,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>1444</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>1444</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -2730,13 +2730,13 @@
         <v>1444</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,34 +2745,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>259</v>
+      </c>
+      <c r="D27" s="7">
+        <v>175845</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>277</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>184176</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>259</v>
-      </c>
-      <c r="I27" s="7">
-        <v>175845</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>536</v>
@@ -2781,13 +2781,13 @@
         <v>360021</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,34 +2798,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>160</v>
+      </c>
+      <c r="D28" s="7">
+        <v>108491</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="7">
         <v>177</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>117222</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H28" s="7">
-        <v>160</v>
-      </c>
-      <c r="I28" s="7">
-        <v>108491</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="M28" s="7">
         <v>337</v>
@@ -2834,13 +2834,13 @@
         <v>225714</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>18</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,34 +2849,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>186</v>
+      </c>
+      <c r="D29" s="7">
+        <v>125529</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H29" s="7">
         <v>185</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>123500</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H29" s="7">
-        <v>186</v>
-      </c>
-      <c r="I29" s="7">
-        <v>125529</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>371</v>
@@ -2885,13 +2885,13 @@
         <v>249029</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,34 +2900,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>72</v>
+      </c>
+      <c r="D30" s="7">
+        <v>47457</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H30" s="7">
         <v>90</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>59632</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H30" s="7">
-        <v>72</v>
-      </c>
-      <c r="I30" s="7">
-        <v>47457</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>162</v>
@@ -2936,13 +2936,13 @@
         <v>107089</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,34 +2951,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>4</v>
+      </c>
+      <c r="D31" s="7">
+        <v>2646</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>6026</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="H31" s="7">
-        <v>4</v>
-      </c>
-      <c r="I31" s="7">
-        <v>2646</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="M31" s="7">
         <v>13</v>
@@ -2987,13 +2987,13 @@
         <v>8672</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,34 +3002,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2177</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H32" s="7">
         <v>1</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>578</v>
       </c>
-      <c r="E32" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="H32" s="7">
-        <v>3</v>
-      </c>
-      <c r="I32" s="7">
-        <v>2177</v>
-      </c>
       <c r="J32" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>136</v>
+        <v>55</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3038,13 +3038,13 @@
         <v>2755</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,34 +3053,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>425</v>
+      </c>
+      <c r="D33" s="7">
+        <v>286300</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>462</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>306959</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>425</v>
-      </c>
-      <c r="I33" s="7">
-        <v>286300</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>887</v>
@@ -3089,18 +3089,18 @@
         <v>593259</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -3120,7 +3120,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3F5398-9E5C-4E54-86F0-E9D541676462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D651748-2A17-4EAF-8A1C-84064813F5B1}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3137,7 +3137,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3782,34 +3782,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>83</v>
+      </c>
+      <c r="D16" s="7">
+        <v>58442</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H16" s="7">
         <v>93</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>64869</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7">
-        <v>83</v>
-      </c>
-      <c r="I16" s="7">
-        <v>58442</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -3818,13 +3818,13 @@
         <v>123311</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3833,34 +3833,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>99</v>
+      </c>
+      <c r="D17" s="7">
+        <v>68693</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H17" s="7">
         <v>102</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>71210</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H17" s="7">
-        <v>99</v>
-      </c>
-      <c r="I17" s="7">
-        <v>68693</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="M17" s="7">
         <v>201</v>
@@ -3869,13 +3869,13 @@
         <v>139903</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>34</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,34 +3884,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>21</v>
+      </c>
+      <c r="D18" s="7">
+        <v>14895</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" s="7">
         <v>17</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>11495</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" s="7">
-        <v>21</v>
-      </c>
-      <c r="I18" s="7">
-        <v>14895</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="M18" s="7">
         <v>38</v>
@@ -3920,13 +3920,13 @@
         <v>26390</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3935,34 +3935,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H19" s="7">
         <v>3</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>2227</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>173</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>174</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -3971,13 +3971,13 @@
         <v>2227</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3992,13 +3992,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4007,13 +4007,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4022,13 +4022,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4037,34 +4037,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>203</v>
+      </c>
+      <c r="D21" s="7">
+        <v>142030</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>215</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>149802</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>203</v>
-      </c>
-      <c r="I21" s="7">
-        <v>142030</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>418</v>
@@ -4073,51 +4073,51 @@
         <v>291832</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>68</v>
+      </c>
+      <c r="D22" s="7">
+        <v>47356</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H22" s="7">
         <v>83</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>56828</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H22" s="7">
-        <v>68</v>
-      </c>
-      <c r="I22" s="7">
-        <v>47356</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="M22" s="7">
         <v>151</v>
@@ -4126,13 +4126,13 @@
         <v>104184</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4141,34 +4141,34 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
+        <v>104</v>
+      </c>
+      <c r="D23" s="7">
+        <v>73737</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="7">
         <v>108</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>73166</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="H23" s="7">
-        <v>104</v>
-      </c>
-      <c r="I23" s="7">
-        <v>73737</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M23" s="7">
         <v>212</v>
@@ -4177,13 +4177,13 @@
         <v>146903</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>190</v>
+        <v>109</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4192,34 +4192,34 @@
         <v>13</v>
       </c>
       <c r="C24" s="7">
+        <v>43</v>
+      </c>
+      <c r="D24" s="7">
+        <v>30176</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="7">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>30344</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="H24" s="7">
-        <v>43</v>
-      </c>
-      <c r="I24" s="7">
-        <v>30176</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M24" s="7">
         <v>88</v>
@@ -4228,13 +4228,13 @@
         <v>60521</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,34 +4243,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>1</v>
+      </c>
+      <c r="D25" s="7">
+        <v>768</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3888</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="H25" s="7">
-        <v>1</v>
-      </c>
-      <c r="I25" s="7">
-        <v>768</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>54</v>
+        <v>206</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>7</v>
@@ -4279,13 +4279,13 @@
         <v>4656</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,34 +4294,34 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>54</v>
+        <v>211</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>208</v>
+        <v>55</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>135</v>
       </c>
       <c r="M26" s="7">
         <v>1</v>
@@ -4330,13 +4330,13 @@
         <v>595</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>134</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,34 +4345,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>217</v>
+      </c>
+      <c r="D27" s="7">
+        <v>152633</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>242</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>164226</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>217</v>
-      </c>
-      <c r="I27" s="7">
-        <v>152633</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>459</v>
@@ -4381,13 +4381,13 @@
         <v>316859</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,34 +4398,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>151</v>
+      </c>
+      <c r="D28" s="7">
+        <v>105799</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="7">
         <v>176</v>
       </c>
-      <c r="D28" s="7">
+      <c r="I28" s="7">
         <v>121697</v>
       </c>
-      <c r="E28" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H28" s="7">
-        <v>151</v>
-      </c>
-      <c r="I28" s="7">
-        <v>105799</v>
-      </c>
       <c r="J28" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M28" s="7">
         <v>327</v>
@@ -4434,13 +4434,13 @@
         <v>227495</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,34 +4449,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>203</v>
+      </c>
+      <c r="D29" s="7">
+        <v>142431</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H29" s="7">
         <v>210</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>144376</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="7">
-        <v>203</v>
-      </c>
-      <c r="I29" s="7">
-        <v>142431</v>
-      </c>
       <c r="J29" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="M29" s="7">
         <v>413</v>
@@ -4485,13 +4485,13 @@
         <v>286807</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>191</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,34 +4500,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>64</v>
+      </c>
+      <c r="D30" s="7">
+        <v>45071</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H30" s="7">
         <v>62</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>41840</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H30" s="7">
-        <v>64</v>
-      </c>
-      <c r="I30" s="7">
-        <v>45071</v>
-      </c>
       <c r="J30" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M30" s="7">
         <v>126</v>
@@ -4536,13 +4536,13 @@
         <v>86911</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4551,34 +4551,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>1</v>
+      </c>
+      <c r="D31" s="7">
+        <v>768</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H31" s="7">
         <v>9</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>6115</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>768</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>54</v>
+        <v>243</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>204</v>
+        <v>53</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4587,13 +4587,13 @@
         <v>6883</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>239</v>
+        <v>140</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,34 +4602,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="7">
-        <v>0</v>
+        <v>595</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>54</v>
+        <v>245</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H32" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="7">
-        <v>595</v>
+        <v>0</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>242</v>
+        <v>55</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M32" s="7">
         <v>1</v>
@@ -4638,13 +4638,13 @@
         <v>595</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,34 +4653,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>420</v>
+      </c>
+      <c r="D33" s="7">
+        <v>294663</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>457</v>
       </c>
-      <c r="D33" s="7">
+      <c r="I33" s="7">
         <v>314028</v>
       </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>420</v>
-      </c>
-      <c r="I33" s="7">
-        <v>294663</v>
-      </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>877</v>
@@ -4689,18 +4689,18 @@
         <v>608691</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -4720,7 +4720,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAACC6DD-83ED-4DB9-A4B6-590834CDA4FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62402F6B-566B-4FE7-AA91-854322910889}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4737,7 +4737,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5382,34 +5382,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>114</v>
+      </c>
+      <c r="D16" s="7">
+        <v>79860</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="H16" s="7">
         <v>113</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>79516</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H16" s="7">
-        <v>114</v>
-      </c>
-      <c r="I16" s="7">
-        <v>79860</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="M16" s="7">
         <v>227</v>
@@ -5418,13 +5418,13 @@
         <v>159376</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5433,34 +5433,34 @@
         <v>12</v>
       </c>
       <c r="C17" s="7">
+        <v>109</v>
+      </c>
+      <c r="D17" s="7">
+        <v>76502</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="7">
         <v>107</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>78022</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H17" s="7">
-        <v>109</v>
-      </c>
-      <c r="I17" s="7">
-        <v>76502</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M17" s="7">
         <v>216</v>
@@ -5469,13 +5469,13 @@
         <v>154524</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5484,34 +5484,34 @@
         <v>13</v>
       </c>
       <c r="C18" s="7">
+        <v>32</v>
+      </c>
+      <c r="D18" s="7">
+        <v>21974</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H18" s="7">
         <v>20</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>14356</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H18" s="7">
-        <v>32</v>
-      </c>
-      <c r="I18" s="7">
-        <v>21974</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>52</v>
@@ -5520,13 +5520,13 @@
         <v>36330</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>273</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5535,34 +5535,34 @@
         <v>14</v>
       </c>
       <c r="C19" s="7">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <v>0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H19" s="7">
         <v>1</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>708</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0</v>
-      </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
       <c r="J19" s="7" t="s">
-        <v>54</v>
+        <v>277</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5571,13 +5571,13 @@
         <v>708</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>140</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5589,31 +5589,31 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>208</v>
+        <v>280</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>646</v>
+        <v>678</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>279</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -5622,13 +5622,13 @@
         <v>1324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5637,34 +5637,34 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>256</v>
+      </c>
+      <c r="D21" s="7">
+        <v>178982</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="7">
         <v>242</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>173280</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H21" s="7">
-        <v>256</v>
-      </c>
-      <c r="I21" s="7">
-        <v>178982</v>
-      </c>
       <c r="J21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M21" s="7">
         <v>498</v>
@@ -5673,51 +5673,51 @@
         <v>352262</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>82</v>
+      </c>
+      <c r="D22" s="7">
+        <v>58355</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H22" s="7">
         <v>81</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>61258</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="H22" s="7">
-        <v>82</v>
-      </c>
-      <c r="I22" s="7">
-        <v>58355</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>110</v>
+        <v>289</v>
       </c>
       <c r="M22" s="7">
         <v>163</v>
@@ -5726,13 +5726,13 @@
         <v>119613</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>288</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5741,31 +5741,31 @@
         <v>12</v>
       </c>
       <c r="C23" s="7">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D23" s="7">
-        <v>72899</v>
+        <v>66526</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>291</v>
+        <v>213</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="7">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="I23" s="7">
-        <v>66526</v>
+        <v>72899</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>190</v>
+        <v>293</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>294</v>
@@ -5780,10 +5780,10 @@
         <v>295</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>147</v>
+        <v>297</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,31 +5795,31 @@
         <v>39</v>
       </c>
       <c r="D24" s="7">
-        <v>28794</v>
+        <v>26783</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>39</v>
       </c>
       <c r="I24" s="7">
-        <v>26783</v>
+        <v>28794</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M24" s="7">
         <v>78</v>
@@ -5828,13 +5828,13 @@
         <v>55578</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,34 +5843,34 @@
         <v>14</v>
       </c>
       <c r="C25" s="7">
+        <v>5</v>
+      </c>
+      <c r="D25" s="7">
+        <v>3103</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="H25" s="7">
         <v>6</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>4326</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H25" s="7">
-        <v>5</v>
-      </c>
-      <c r="I25" s="7">
-        <v>3103</v>
-      </c>
       <c r="J25" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>309</v>
+        <v>143</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -5879,13 +5879,13 @@
         <v>7429</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>311</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,31 +5894,31 @@
         <v>15</v>
       </c>
       <c r="C26" s="7">
+        <v>4</v>
+      </c>
+      <c r="D26" s="7">
+        <v>2853</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>1107</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H26" s="7">
-        <v>4</v>
-      </c>
-      <c r="I26" s="7">
-        <v>2853</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>314</v>
-      </c>
       <c r="K26" s="7" t="s">
-        <v>315</v>
+        <v>55</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>316</v>
@@ -5933,10 +5933,10 @@
         <v>317</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,34 +5945,34 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>223</v>
+      </c>
+      <c r="D27" s="7">
+        <v>157621</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H27" s="7">
         <v>227</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>168384</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="7">
-        <v>223</v>
-      </c>
-      <c r="I27" s="7">
-        <v>157621</v>
-      </c>
       <c r="J27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M27" s="7">
         <v>450</v>
@@ -5981,13 +5981,13 @@
         <v>326005</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5998,34 +5998,34 @@
         <v>10</v>
       </c>
       <c r="C28" s="7">
+        <v>196</v>
+      </c>
+      <c r="D28" s="7">
+        <v>138215</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H28" s="7">
         <v>194</v>
       </c>
-      <c r="D28" s="7">
-        <v>140773</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="F28" s="7" t="s">
+      <c r="I28" s="7">
+        <v>140774</v>
+      </c>
+      <c r="J28" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="H28" s="7">
-        <v>196</v>
-      </c>
-      <c r="I28" s="7">
-        <v>138215</v>
-      </c>
-      <c r="J28" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M28" s="7">
         <v>390</v>
@@ -6034,13 +6034,13 @@
         <v>278989</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,34 +6049,34 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
+        <v>202</v>
+      </c>
+      <c r="D29" s="7">
+        <v>143028</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="7">
         <v>207</v>
       </c>
-      <c r="D29" s="7">
+      <c r="I29" s="7">
         <v>150921</v>
       </c>
-      <c r="E29" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F29" s="7" t="s">
+      <c r="J29" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="K29" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H29" s="7">
-        <v>202</v>
-      </c>
-      <c r="I29" s="7">
-        <v>143028</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="L29" s="7" t="s">
-        <v>334</v>
+        <v>292</v>
       </c>
       <c r="M29" s="7">
         <v>409</v>
@@ -6085,13 +6085,13 @@
         <v>293949</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,34 +6100,34 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
+        <v>71</v>
+      </c>
+      <c r="D30" s="7">
+        <v>48758</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H30" s="7">
         <v>59</v>
       </c>
-      <c r="D30" s="7">
+      <c r="I30" s="7">
         <v>43150</v>
       </c>
-      <c r="E30" s="7" t="s">
+      <c r="J30" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="H30" s="7">
-        <v>71</v>
-      </c>
-      <c r="I30" s="7">
-        <v>48758</v>
-      </c>
-      <c r="J30" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>343</v>
       </c>
       <c r="M30" s="7">
         <v>130</v>
@@ -6136,13 +6136,13 @@
         <v>91908</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>345</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,34 +6151,34 @@
         <v>14</v>
       </c>
       <c r="C31" s="7">
+        <v>5</v>
+      </c>
+      <c r="D31" s="7">
+        <v>3103</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H31" s="7">
         <v>7</v>
       </c>
-      <c r="D31" s="7">
+      <c r="I31" s="7">
         <v>5034</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="7">
-        <v>5</v>
-      </c>
-      <c r="I31" s="7">
-        <v>3103</v>
-      </c>
       <c r="J31" s="7" t="s">
-        <v>127</v>
+        <v>208</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>172</v>
+        <v>345</v>
       </c>
       <c r="M31" s="7">
         <v>12</v>
@@ -6187,13 +6187,13 @@
         <v>8137</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,34 +6202,34 @@
         <v>15</v>
       </c>
       <c r="C32" s="7">
+        <v>5</v>
+      </c>
+      <c r="D32" s="7">
+        <v>3499</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="H32" s="7">
         <v>2</v>
       </c>
-      <c r="D32" s="7">
+      <c r="I32" s="7">
         <v>1785</v>
       </c>
-      <c r="E32" s="7" t="s">
+      <c r="J32" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="K32" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3499</v>
-      </c>
-      <c r="J32" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
@@ -6238,10 +6238,10 @@
         <v>5284</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>356</v>
@@ -6253,34 +6253,34 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
+        <v>479</v>
+      </c>
+      <c r="D33" s="7">
+        <v>336602</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H33" s="7">
         <v>469</v>
       </c>
-      <c r="D33" s="7">
-        <v>341664</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="7">
-        <v>479</v>
-      </c>
       <c r="I33" s="7">
-        <v>336602</v>
+        <v>341665</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M33" s="7">
         <v>948</v>
@@ -6289,18 +6289,18 @@
         <v>678267</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
